--- a/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43774</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -819,7 +820,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -856,7 +857,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -905,7 +906,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -938,7 +939,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -971,7 +972,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1004,7 +1005,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1037,7 +1038,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1070,7 +1071,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1103,7 +1104,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1144,7 +1145,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1193,7 +1194,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1226,7 +1227,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1259,7 +1260,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1292,7 +1293,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1325,7 +1326,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1358,7 +1359,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1391,7 +1392,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1428,7 +1429,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1465,7 +1466,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1514,7 +1515,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1547,7 +1548,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1580,7 +1581,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1613,7 +1614,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1646,7 +1647,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1683,7 +1684,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1716,7 +1717,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1790,7 +1791,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1839,7 +1840,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1938,7 +1939,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2004,7 +2005,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2037,7 +2038,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2070,7 +2071,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2107,7 +2108,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2144,7 +2145,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2193,7 +2194,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2226,7 +2227,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2259,7 +2260,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2292,7 +2293,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2325,7 +2326,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2362,7 +2363,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2395,7 +2396,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2432,7 +2433,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2469,7 +2470,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2518,7 +2519,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2551,7 +2552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2584,7 +2585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2617,7 +2618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2650,7 +2651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2687,7 +2688,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2720,7 +2721,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2757,7 +2758,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2794,7 +2795,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2843,7 +2844,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2909,7 +2910,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2942,7 +2943,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2975,7 +2976,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3041,7 +3042,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3111,7 +3112,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3148,7 +3149,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3197,7 +3198,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3263,7 +3264,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3296,7 +3297,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3329,7 +3330,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3362,7 +3363,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3395,7 +3396,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3432,7 +3433,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3469,7 +3470,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3518,7 +3519,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3551,7 +3552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3584,7 +3585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3617,7 +3618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3650,7 +3651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3687,7 +3688,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3720,7 +3721,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3757,7 +3758,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3794,7 +3795,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -3843,7 +3844,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3876,7 +3877,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3909,7 +3910,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3942,7 +3943,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3975,7 +3976,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4008,7 +4009,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4041,7 +4042,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4074,7 +4075,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4107,7 +4108,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43774</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4140,7 +4141,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4173,7 +4174,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4210,7 +4211,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4247,7 +4248,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4296,7 +4297,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4329,7 +4330,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4362,7 +4363,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4395,7 +4396,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4428,7 +4429,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4461,7 +4462,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4494,7 +4495,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4527,7 +4528,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4560,7 +4561,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4593,7 +4594,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4626,7 +4627,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4667,7 +4668,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4716,7 +4717,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4749,7 +4750,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4782,7 +4783,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4815,7 +4816,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4881,7 +4882,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4914,7 +4915,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4947,7 +4948,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4980,7 +4981,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5013,7 +5014,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5046,7 +5047,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5083,7 +5084,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -5120,7 +5121,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5169,7 +5170,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5202,7 +5203,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5235,7 +5236,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5268,7 +5269,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5301,7 +5302,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5334,7 +5335,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5367,7 +5368,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5400,7 +5401,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5433,7 +5434,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5466,7 +5467,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5499,7 +5500,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5536,7 +5537,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5573,7 +5574,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5622,7 +5623,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5655,7 +5656,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5688,7 +5689,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5721,7 +5722,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5754,7 +5755,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5787,7 +5788,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5820,7 +5821,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5853,7 +5854,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -5886,7 +5887,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5919,7 +5920,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -5952,7 +5953,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -5989,7 +5990,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -6026,7 +6027,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -6075,7 +6076,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6108,7 +6109,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6141,7 +6142,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6174,7 +6175,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6207,7 +6208,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6240,7 +6241,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6273,7 +6274,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6306,7 +6307,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6339,7 +6340,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6372,7 +6373,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6405,7 +6406,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6442,7 +6443,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6479,7 +6480,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6528,7 +6529,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6561,7 +6562,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6594,7 +6595,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6627,7 +6628,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6660,7 +6661,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6693,7 +6694,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6726,7 +6727,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6759,7 +6760,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6796,7 +6797,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6829,7 +6830,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6866,7 +6867,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -6903,7 +6904,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -6952,7 +6953,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -6985,7 +6986,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7018,7 +7019,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7051,7 +7052,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7084,7 +7085,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7117,7 +7118,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7150,7 +7151,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7183,7 +7184,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7216,7 +7217,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7249,7 +7250,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7282,7 +7283,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7319,7 +7320,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -7356,7 +7357,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -7405,7 +7406,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7438,7 +7439,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7471,7 +7472,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7504,7 +7505,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7537,7 +7538,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7570,7 +7571,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7603,7 +7604,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7640,7 +7641,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7673,7 +7674,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7706,7 +7707,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7743,7 +7744,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C206" t="inlineStr">
@@ -7780,7 +7781,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7829,7 +7830,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7895,7 +7896,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7928,7 +7929,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -7961,7 +7962,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -7994,7 +7995,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8027,7 +8028,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8060,7 +8061,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8093,7 +8094,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8126,7 +8127,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8159,7 +8160,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8196,7 +8197,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -8233,7 +8234,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -8282,7 +8283,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8315,7 +8316,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8348,7 +8349,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8381,7 +8382,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8414,7 +8415,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8447,7 +8448,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8484,7 +8485,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -8521,7 +8522,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -8570,7 +8571,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -8603,7 +8604,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8636,7 +8637,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8669,7 +8670,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8702,7 +8703,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8735,7 +8736,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8776,7 +8777,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -8825,7 +8826,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8858,7 +8859,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8891,7 +8892,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8924,7 +8925,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8957,7 +8958,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -8990,7 +8991,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9027,7 +9028,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C242" t="inlineStr">
@@ -9064,7 +9065,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9113,7 +9114,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9146,7 +9147,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9179,7 +9180,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9212,7 +9213,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9245,7 +9246,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9278,7 +9279,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9315,7 +9316,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C250" t="inlineStr">
@@ -9352,7 +9353,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C251" t="inlineStr">
@@ -9401,7 +9402,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9434,7 +9435,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9467,7 +9468,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9500,7 +9501,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9533,7 +9534,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -9566,7 +9567,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -9603,7 +9604,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -9640,7 +9641,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -9689,7 +9690,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -9722,7 +9723,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -9755,7 +9756,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -9788,7 +9789,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -9821,7 +9822,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -9891,7 +9892,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -9928,7 +9929,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C267" t="inlineStr">
@@ -9977,7 +9978,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10010,7 +10011,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10043,7 +10044,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10076,7 +10077,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10109,7 +10110,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10142,7 +10143,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10179,7 +10180,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10216,7 +10217,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C275" t="inlineStr">
@@ -10265,7 +10266,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10298,7 +10299,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10331,7 +10332,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10364,7 +10365,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10397,7 +10398,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10430,7 +10431,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10467,7 +10468,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -10504,7 +10505,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -10553,7 +10554,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -10586,7 +10587,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -10619,7 +10620,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -10652,7 +10653,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -10685,7 +10686,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -10718,7 +10719,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -10755,7 +10756,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -10792,7 +10793,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C291" t="inlineStr">
@@ -10841,7 +10842,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -10874,7 +10875,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -10907,7 +10908,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -10940,7 +10941,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -10973,7 +10974,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11006,7 +11007,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11043,7 +11044,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11080,7 +11081,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43676</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43774</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -820,7 +819,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -857,7 +856,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -906,7 +905,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -939,7 +938,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -972,7 +971,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1005,7 +1004,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43746</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1038,7 +1037,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1071,7 +1070,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1104,7 +1103,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1145,7 +1144,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1194,7 +1193,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1227,7 +1226,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1260,7 +1259,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1293,7 +1292,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43746</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1326,7 +1325,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1359,7 +1358,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1392,7 +1391,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1429,7 +1428,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,7 +1465,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1515,7 +1514,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1548,7 +1547,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43689</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1581,7 +1580,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1614,7 +1613,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1647,7 +1646,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1684,7 +1683,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1717,7 +1716,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1754,7 +1753,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1791,7 +1790,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1840,7 +1839,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43676</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1873,7 +1872,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1906,7 +1905,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1939,7 +1938,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1972,7 +1971,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2005,7 +2004,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43780</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2038,7 +2037,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2071,7 +2070,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2108,7 +2107,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2145,7 +2144,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2194,7 +2193,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2227,7 +2226,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43689</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2260,7 +2259,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2293,7 +2292,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2326,7 +2325,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2363,7 +2362,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2396,7 +2395,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2433,7 +2432,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2470,7 +2469,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2519,7 +2518,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2552,7 +2551,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43689</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2585,7 +2584,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2618,7 +2617,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2651,7 +2650,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2688,7 +2687,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2721,7 +2720,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2758,7 +2757,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2795,7 +2794,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2844,7 +2843,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2877,7 +2876,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43689</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2910,7 +2909,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2943,7 +2942,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2976,7 +2975,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3009,7 +3008,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43780</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3042,7 +3041,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3075,7 +3074,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3112,7 +3111,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3149,7 +3148,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3198,7 +3197,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3231,7 +3230,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3264,7 +3263,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3297,7 +3296,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43746</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3330,7 +3329,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3363,7 +3362,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3396,7 +3395,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3433,7 +3432,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3470,7 +3469,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3519,7 +3518,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43676</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3552,7 +3551,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3585,7 +3584,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3618,7 +3617,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3651,7 +3650,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3688,7 +3687,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3721,7 +3720,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3758,7 +3757,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3795,7 +3794,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -3844,7 +3843,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3877,7 +3876,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3910,7 +3909,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3943,7 +3942,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3976,7 +3975,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4009,7 +4008,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4042,7 +4041,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4075,7 +4074,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4108,7 +4107,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43774</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4141,7 +4140,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4174,7 +4173,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4211,7 +4210,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4248,7 +4247,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4297,7 +4296,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4330,7 +4329,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4363,7 +4362,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4396,7 +4395,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4429,7 +4428,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4462,7 +4461,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4495,7 +4494,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4528,7 +4527,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43746</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4561,7 +4560,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4594,7 +4593,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4627,7 +4626,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4668,7 +4667,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4717,7 +4716,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4750,7 +4749,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4783,7 +4782,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4816,7 +4815,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4849,7 +4848,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4882,7 +4881,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4915,7 +4914,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4948,7 +4947,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43746</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4981,7 +4980,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5014,7 +5013,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5047,7 +5046,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5084,7 +5083,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -5121,7 +5120,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5170,7 +5169,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5203,7 +5202,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5236,7 +5235,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5269,7 +5268,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5302,7 +5301,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5335,7 +5334,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5368,7 +5367,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5401,7 +5400,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43759</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5434,7 +5433,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5467,7 +5466,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5500,7 +5499,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5537,7 +5536,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5574,7 +5573,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5623,7 +5622,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5656,7 +5655,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5689,7 +5688,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5722,7 +5721,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5755,7 +5754,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5788,7 +5787,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5821,7 +5820,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5854,7 +5853,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -5887,7 +5886,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43780</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5920,7 +5919,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -5953,7 +5952,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -5990,7 +5989,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -6027,7 +6026,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -6076,7 +6075,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6109,7 +6108,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6142,7 +6141,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6175,7 +6174,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6208,7 +6207,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6241,7 +6240,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6274,7 +6273,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6307,7 +6306,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43759</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6340,7 +6339,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6373,7 +6372,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6406,7 +6405,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6443,7 +6442,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6480,7 +6479,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6529,7 +6528,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6562,7 +6561,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6595,7 +6594,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6628,7 +6627,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6661,7 +6660,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6694,7 +6693,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6727,7 +6726,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6760,7 +6759,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6797,7 +6796,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6830,7 +6829,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6867,7 +6866,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -6904,7 +6903,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -6953,7 +6952,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -6986,7 +6985,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7019,7 +7018,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7052,7 +7051,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7085,7 +7084,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7118,7 +7117,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7151,7 +7150,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7184,7 +7183,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7217,7 +7216,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43780</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7250,7 +7249,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7283,7 +7282,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7320,7 +7319,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -7357,7 +7356,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -7406,7 +7405,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7439,7 +7438,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7472,7 +7471,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7505,7 +7504,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7538,7 +7537,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7571,7 +7570,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7604,7 +7603,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7641,7 +7640,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7674,7 +7673,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7707,7 +7706,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7744,7 +7743,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C206" t="inlineStr">
@@ -7781,7 +7780,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7830,7 +7829,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7863,7 +7862,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7896,7 +7895,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7929,7 +7928,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -7962,7 +7961,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -7995,7 +7994,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8028,7 +8027,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8061,7 +8060,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43759</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8094,7 +8093,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8127,7 +8126,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8160,7 +8159,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8197,7 +8196,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -8234,7 +8233,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -8283,7 +8282,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8316,7 +8315,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8349,7 +8348,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8382,7 +8381,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8415,7 +8414,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8448,7 +8447,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8485,7 +8484,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -8522,7 +8521,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -8571,7 +8570,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -8604,7 +8603,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8637,7 +8636,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8670,7 +8669,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8703,7 +8702,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8736,7 +8735,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8777,7 +8776,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -8826,7 +8825,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8859,7 +8858,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8892,7 +8891,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8925,7 +8924,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8958,7 +8957,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -8991,7 +8990,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9028,7 +9027,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C242" t="inlineStr">
@@ -9065,7 +9064,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9114,7 +9113,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9147,7 +9146,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9180,7 +9179,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9213,7 +9212,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9246,7 +9245,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9279,7 +9278,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9316,7 +9315,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C250" t="inlineStr">
@@ -9353,7 +9352,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C251" t="inlineStr">
@@ -9402,7 +9401,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9435,7 +9434,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9468,7 +9467,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9501,7 +9500,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9534,7 +9533,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -9567,7 +9566,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -9604,7 +9603,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -9641,7 +9640,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -9690,7 +9689,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -9723,7 +9722,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -9756,7 +9755,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -9789,7 +9788,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -9822,7 +9821,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -9855,7 +9854,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -9892,7 +9891,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -9929,7 +9928,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C267" t="inlineStr">
@@ -9978,7 +9977,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10011,7 +10010,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10044,7 +10043,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10077,7 +10076,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10110,7 +10109,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10143,7 +10142,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10180,7 +10179,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10217,7 +10216,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C275" t="inlineStr">
@@ -10266,7 +10265,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10299,7 +10298,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10332,7 +10331,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10365,7 +10364,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10398,7 +10397,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10431,7 +10430,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10468,7 +10467,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -10505,7 +10504,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -10554,7 +10553,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -10587,7 +10586,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -10620,7 +10619,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -10653,7 +10652,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -10686,7 +10685,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -10719,7 +10718,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -10756,7 +10755,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -10793,7 +10792,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C291" t="inlineStr">
@@ -10842,7 +10841,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -10875,7 +10874,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -10908,7 +10907,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -10941,7 +10940,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -10974,7 +10973,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11007,7 +11006,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>43809</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11044,7 +11043,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>43839</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11081,7 +11080,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43774</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -819,7 +820,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -856,7 +857,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -905,7 +906,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -938,7 +939,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -971,7 +972,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1004,7 +1005,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1037,7 +1038,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1070,7 +1071,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1103,7 +1104,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1144,7 +1145,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1193,7 +1194,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1226,7 +1227,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1259,7 +1260,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1292,7 +1293,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1325,7 +1326,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1358,7 +1359,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1391,7 +1392,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1428,7 +1429,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1465,7 +1466,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -1514,7 +1515,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1547,7 +1548,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1580,7 +1581,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1613,7 +1614,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1646,7 +1647,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1683,7 +1684,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1716,7 +1717,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1790,7 +1791,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1839,7 +1840,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1938,7 +1939,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2004,7 +2005,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2037,7 +2038,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2070,7 +2071,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2107,7 +2108,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2144,7 +2145,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2193,7 +2194,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2226,7 +2227,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2259,7 +2260,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2292,7 +2293,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2325,7 +2326,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2362,7 +2363,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2395,7 +2396,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2432,7 +2433,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2469,7 +2470,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2518,7 +2519,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2551,7 +2552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2584,7 +2585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2617,7 +2618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2650,7 +2651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2687,7 +2688,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2720,7 +2721,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2757,7 +2758,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2794,7 +2795,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2843,7 +2844,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43689</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2909,7 +2910,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2942,7 +2943,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2975,7 +2976,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3041,7 +3042,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3111,7 +3112,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3148,7 +3149,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3197,7 +3198,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3263,7 +3264,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3296,7 +3297,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3329,7 +3330,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3362,7 +3363,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3395,7 +3396,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3432,7 +3433,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3469,7 +3470,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3518,7 +3519,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43676</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3551,7 +3552,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3584,7 +3585,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3617,7 +3618,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3650,7 +3651,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3687,7 +3688,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3720,7 +3721,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3757,7 +3758,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3794,7 +3795,7 @@
           <t>FAR SAC W19-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -3843,7 +3844,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3876,7 +3877,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3909,7 +3910,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3942,7 +3943,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3975,7 +3976,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4008,7 +4009,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4041,7 +4042,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4074,7 +4075,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4107,7 +4108,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43774</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4140,7 +4141,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4173,7 +4174,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4210,7 +4211,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4247,7 +4248,7 @@
           <t>FAR SAC W19-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4296,7 +4297,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4329,7 +4330,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4362,7 +4363,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4395,7 +4396,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4428,7 +4429,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4461,7 +4462,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4494,7 +4495,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4527,7 +4528,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4560,7 +4561,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4593,7 +4594,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4626,7 +4627,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4667,7 +4668,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4716,7 +4717,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4749,7 +4750,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4782,7 +4783,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4815,7 +4816,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4881,7 +4882,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4914,7 +4915,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4947,7 +4948,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43746</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4980,7 +4981,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5013,7 +5014,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5046,7 +5047,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5083,7 +5084,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -5120,7 +5121,7 @@
           <t>FAR SAC W19-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5169,7 +5170,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5202,7 +5203,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5235,7 +5236,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5268,7 +5269,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5301,7 +5302,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5334,7 +5335,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5367,7 +5368,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5400,7 +5401,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5433,7 +5434,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5466,7 +5467,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5499,7 +5500,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5536,7 +5537,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5573,7 +5574,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5622,7 +5623,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5655,7 +5656,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5688,7 +5689,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5721,7 +5722,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5754,7 +5755,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5787,7 +5788,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5820,7 +5821,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5853,7 +5854,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -5886,7 +5887,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5919,7 +5920,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -5952,7 +5953,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -5989,7 +5990,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -6026,7 +6027,7 @@
           <t>FAR SAC W19-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -6075,7 +6076,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6108,7 +6109,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6141,7 +6142,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6174,7 +6175,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6207,7 +6208,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6240,7 +6241,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6273,7 +6274,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6306,7 +6307,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6339,7 +6340,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6372,7 +6373,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6405,7 +6406,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6442,7 +6443,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6479,7 +6480,7 @@
           <t>FAR SAC W19-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6528,7 +6529,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6561,7 +6562,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6594,7 +6595,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6627,7 +6628,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6660,7 +6661,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6693,7 +6694,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6726,7 +6727,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6759,7 +6760,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6796,7 +6797,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6829,7 +6830,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6866,7 +6867,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -6903,7 +6904,7 @@
           <t>FAR SAC W19-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -6952,7 +6953,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -6985,7 +6986,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7018,7 +7019,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7051,7 +7052,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7084,7 +7085,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7117,7 +7118,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7150,7 +7151,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7183,7 +7184,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7216,7 +7217,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43780</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7249,7 +7250,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7282,7 +7283,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7319,7 +7320,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C194" t="inlineStr">
@@ -7356,7 +7357,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C195" t="inlineStr">
@@ -7405,7 +7406,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7438,7 +7439,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7471,7 +7472,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7504,7 +7505,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7537,7 +7538,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7570,7 +7571,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7603,7 +7604,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7640,7 +7641,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7673,7 +7674,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7706,7 +7707,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7743,7 +7744,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C206" t="inlineStr">
@@ -7780,7 +7781,7 @@
           <t>FAR SAC W19-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7829,7 +7830,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7895,7 +7896,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7928,7 +7929,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -7961,7 +7962,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -7994,7 +7995,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8027,7 +8028,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8060,7 +8061,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43759</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8093,7 +8094,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8126,7 +8127,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8159,7 +8160,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8196,7 +8197,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C219" t="inlineStr">
@@ -8233,7 +8234,7 @@
           <t>FAR SAC W19-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C220" t="inlineStr">
@@ -8282,7 +8283,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8315,7 +8316,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8348,7 +8349,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8381,7 +8382,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8414,7 +8415,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8447,7 +8448,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8484,7 +8485,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C227" t="inlineStr">
@@ -8521,7 +8522,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -8570,7 +8571,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -8603,7 +8604,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8636,7 +8637,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8669,7 +8670,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8702,7 +8703,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8735,7 +8736,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8776,7 +8777,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -8825,7 +8826,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8858,7 +8859,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8891,7 +8892,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8924,7 +8925,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8957,7 +8958,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -8990,7 +8991,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9027,7 +9028,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C242" t="inlineStr">
@@ -9064,7 +9065,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9113,7 +9114,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9146,7 +9147,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9179,7 +9180,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9212,7 +9213,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9245,7 +9246,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9278,7 +9279,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9315,7 +9316,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C250" t="inlineStr">
@@ -9352,7 +9353,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C251" t="inlineStr">
@@ -9401,7 +9402,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9434,7 +9435,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9467,7 +9468,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9500,7 +9501,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9533,7 +9534,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -9566,7 +9567,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -9603,7 +9604,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -9640,7 +9641,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -9689,7 +9690,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -9722,7 +9723,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -9755,7 +9756,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -9788,7 +9789,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -9821,7 +9822,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -9891,7 +9892,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -9928,7 +9929,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C267" t="inlineStr">
@@ -9977,7 +9978,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10010,7 +10011,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10043,7 +10044,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10076,7 +10077,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10109,7 +10110,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10142,7 +10143,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10179,7 +10180,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10216,7 +10217,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C275" t="inlineStr">
@@ -10265,7 +10266,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10298,7 +10299,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10331,7 +10332,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10364,7 +10365,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10397,7 +10398,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10430,7 +10431,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10467,7 +10468,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -10504,7 +10505,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -10553,7 +10554,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -10586,7 +10587,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -10619,7 +10620,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -10652,7 +10653,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -10685,7 +10686,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -10718,7 +10719,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -10755,7 +10756,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C290" t="inlineStr">
@@ -10792,7 +10793,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C291" t="inlineStr">
@@ -10841,7 +10842,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -10874,7 +10875,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -10907,7 +10908,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -10940,7 +10941,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -10973,7 +10974,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11006,7 +11007,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43809</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11043,7 +11044,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43839</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11080,7 +11081,7 @@
           <t>FAR SAC W19-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">
